--- a/数据库字段说明.xlsx
+++ b/数据库字段说明.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -656,7 +656,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>il_inc_locm(信标作业状态表)</t>
+    <t>il_inc_lmar(信标作业状态表)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,10 +723,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1088,12 +1088,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1300,12 +1300,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1333,12 +1333,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1436,12 +1436,12 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1505,12 +1505,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -1622,12 +1622,12 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -1739,12 +1739,12 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -1842,12 +1842,12 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -1971,12 +1971,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -2117,18 +2117,18 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
@@ -2209,12 +2209,12 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -2242,12 +2242,12 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -2289,12 +2289,12 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -2403,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2414,12 +2414,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2503,12 +2503,12 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2564,12 +2564,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2611,12 +2611,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -2644,12 +2644,12 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2719,12 +2719,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -2777,12 +2777,12 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
